--- a/3rd/Table_Definition_product_etc.xlsx
+++ b/3rd/Table_Definition_product_etc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tkuriyama\Desktop\情報処理資格\発表したもの\DBとお友達になろう会\第3回\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC9AB4-164D-4CAA-AAD8-564439CF915A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C1A64-D1B2-4731-9CD1-8640BF95D2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -628,15 +628,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -893,7 +893,7 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1097,12 +1097,12 @@
       <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
@@ -1114,10 +1114,10 @@
       <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
@@ -1129,10 +1129,10 @@
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
@@ -1144,11 +1144,11 @@
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="K6" s="50" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="K6" s="46" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="38"/>
@@ -1167,10 +1167,10 @@
       <c r="D7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
       <c r="K7" s="40"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -1188,10 +1188,10 @@
       <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
       <c r="K8" s="40"/>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
@@ -1209,10 +1209,10 @@
       <c r="D9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
       <c r="K9" s="40"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
@@ -1230,10 +1230,10 @@
       <c r="D10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
       <c r="K10" s="40"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -1251,10 +1251,10 @@
       <c r="D11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="K11" s="40"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
@@ -1272,10 +1272,10 @@
       <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
       <c r="K12" s="40"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
@@ -1293,10 +1293,10 @@
       <c r="D13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
       <c r="K13" s="43"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
@@ -1314,10 +1314,10 @@
       <c r="D14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
@@ -1329,10 +1329,10 @@
       <c r="D15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="41"/>
@@ -1342,11 +1342,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K6:P13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
@@ -1357,6 +1352,11 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E14:H14"/>
+    <mergeCell ref="K6:P13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <hyperlinks>
@@ -1393,9 +1393,9 @@
       <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
@@ -1419,9 +1419,9 @@
       <c r="B3" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="29" t="s">
         <v>32</v>
       </c>
@@ -1438,14 +1438,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
@@ -1475,7 +1475,7 @@
       <c r="J5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="48"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
@@ -1780,7 +1780,7 @@
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1797,9 +1797,9 @@
       <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
@@ -1823,9 +1823,9 @@
       <c r="B3" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="29" t="s">
         <v>42</v>
       </c>
@@ -1842,14 +1842,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
@@ -1879,7 +1879,7 @@
       <c r="J5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="48"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
@@ -2195,9 +2195,9 @@
       <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
@@ -2219,9 +2219,9 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="20"/>
@@ -2234,14 +2234,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
@@ -2271,7 +2271,7 @@
       <c r="J5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="48"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
@@ -2285,7 +2285,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="16"/>
       <c r="J6" s="63"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
@@ -2299,7 +2299,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="16"/>
       <c r="J7" s="63"/>
-      <c r="K7" s="48"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
@@ -2313,7 +2313,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="16"/>
       <c r="J8" s="63"/>
-      <c r="K8" s="48"/>
+      <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
@@ -2327,7 +2327,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="16"/>
       <c r="J9" s="55"/>
-      <c r="K9" s="48"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
@@ -2341,7 +2341,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="16"/>
       <c r="J10" s="55"/>
-      <c r="K10" s="48"/>
+      <c r="K10" s="49"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
